--- a/biology/Médecine/Au-delà_des_maux/Au-delà_des_maux.xlsx
+++ b/biology/Médecine/Au-delà_des_maux/Au-delà_des_maux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Au-del%C3%A0_des_maux</t>
+          <t>Au-delà_des_maux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au-delà des maux (For Hope) est un téléfilm américain de Bob Saget diffusé en 1996.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Au-del%C3%A0_des_maux</t>
+          <t>Au-delà_des_maux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie et la mort d'une femme atteinte de sclérodermie, une maladie rare caractérisée par l'épaisissement et le durcissement de la peau.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Au-del%C3%A0_des_maux</t>
+          <t>Au-delà_des_maux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : For Hope
 Réalisation : Bob Saget
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Au-del%C3%A0_des_maux</t>
+          <t>Au-delà_des_maux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dana Delany (VF : Caroline Beaune) : Hope Altman
 Polly Bergen : Molly
